--- a/GUI + Reviews/202512/Carbone4.xlsx
+++ b/GUI + Reviews/202512/Carbone4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\PM-Indices-IndexOperations\Review Files\202512\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931ABE3F-8BA9-4E46-BCB0-507B7089D3B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E82716-B5E6-4E15-997D-B46D74E665F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5055" yWindow="2190" windowWidth="21600" windowHeight="11295" xr2:uid="{89BD8708-403D-44DE-85F6-28991402122A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{89BD8708-403D-44DE-85F6-28991402122A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3481" uniqueCount="3425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3483" uniqueCount="3426">
   <si>
     <t>Name</t>
   </si>
@@ -10337,6 +10337,9 @@
   </si>
   <si>
     <t>SBI HOLDINGS INC</t>
+  </si>
+  <si>
+    <t>GB00BVZK7T90</t>
   </si>
 </sst>
 </file>
@@ -10737,7 +10740,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E543C2E-CDAE-4898-A7D4-6A75BF448BE1}">
   <dimension ref="A1:L6304"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A1692" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A1738" sqref="A1738"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -42034,7 +42039,21 @@
       <c r="L1737" s="3"/>
     </row>
     <row r="1738" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G1738" s="5"/>
+      <c r="A1738" t="s">
+        <v>3425</v>
+      </c>
+      <c r="B1738" t="s">
+        <v>2522</v>
+      </c>
+      <c r="G1738" s="5">
+        <v>473.28061075467298</v>
+      </c>
+      <c r="H1738">
+        <v>8.9875354402305199</v>
+      </c>
+      <c r="I1738">
+        <v>1290.54872344868</v>
+      </c>
       <c r="L1738" s="3"/>
     </row>
     <row r="1739" spans="1:12" x14ac:dyDescent="0.2">
